--- a/estab/tab/muestra_tab_estab.xlsx
+++ b/estab/tab/muestra_tab_estab.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inegi\eramo\prueba_piloto_2021\muestra\muestra_eramo_2021\estab\tab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{737C2B36-337C-4CAE-AD70-73D2A2ED43E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27D1EC5-CA2B-452E-B953-2984D0171380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muestra_tab_estab" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="592">
   <si>
     <t>id</t>
   </si>
@@ -1766,12 +1766,42 @@
   </si>
   <si>
     <t>ord</t>
+  </si>
+  <si>
+    <t>INGENIO PRESIDENTE BENITO JUÁREZ SA DE CV</t>
+  </si>
+  <si>
+    <t>Elaboración de azúcar de caña</t>
+  </si>
+  <si>
+    <t>251 y más personas</t>
+  </si>
+  <si>
+    <t>OESTE SETENTA</t>
+  </si>
+  <si>
+    <t>VILLAHERMOSA-COATZACOALCOS</t>
+  </si>
+  <si>
+    <t>POBLADO C27 ING EDUARDO CHAVEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>Cárdenas</t>
+  </si>
+  <si>
+    <t>Ingenio Presidente Benito Juárez</t>
+  </si>
+  <si>
+    <t>DMOCHCAA@IPBJ.COM.MX</t>
+  </si>
+  <si>
+    <t>WWW.IPBJ.COM.MX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2605,10 +2635,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AB106" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:AQ109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -14216,6 +14248,119 @@
         <v>72251</v>
       </c>
     </row>
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>27002</v>
+      </c>
+      <c r="B109">
+        <v>6401472</v>
+      </c>
+      <c r="C109" t="s">
+        <v>582</v>
+      </c>
+      <c r="D109" t="s">
+        <v>582</v>
+      </c>
+      <c r="E109">
+        <v>311311</v>
+      </c>
+      <c r="F109" t="s">
+        <v>583</v>
+      </c>
+      <c r="G109" t="s">
+        <v>584</v>
+      </c>
+      <c r="H109" t="s">
+        <v>60</v>
+      </c>
+      <c r="I109" t="s">
+        <v>585</v>
+      </c>
+      <c r="J109" t="s">
+        <v>60</v>
+      </c>
+      <c r="K109" t="s">
+        <v>84</v>
+      </c>
+      <c r="L109" t="s">
+        <v>60</v>
+      </c>
+      <c r="M109" t="s">
+        <v>586</v>
+      </c>
+      <c r="N109" t="s">
+        <v>60</v>
+      </c>
+      <c r="O109" t="s">
+        <v>585</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>76</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109" t="s">
+        <v>76</v>
+      </c>
+      <c r="V109" t="s">
+        <v>227</v>
+      </c>
+      <c r="W109" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA109">
+        <v>86498</v>
+      </c>
+      <c r="AB109">
+        <v>27</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD109">
+        <v>2</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>588</v>
+      </c>
+      <c r="AF109">
+        <v>97</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>589</v>
+      </c>
+      <c r="AH109">
+        <v>752</v>
+      </c>
+      <c r="AI109">
+        <v>29</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>590</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>591</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN109">
+        <v>18.000833279999998</v>
+      </c>
+      <c r="AO109">
+        <v>-93.579473329999999</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ109">
+        <v>31131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
